--- a/7.12章节/testAPI/Data/data.xlsx
+++ b/7.12章节/testAPI/Data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="22665" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>请求地址</t>
   </si>
@@ -31,7 +31,7 @@
     <t>参数依赖</t>
   </si>
   <si>
-    <t>http://211.149.163.145:3000/register</t>
+    <t>http://219.189.188.145:4000/register</t>
   </si>
   <si>
     <t>{"username":"jackLu","password":"jackLu","password_confirmation":"jackLu"}</t>
@@ -43,13 +43,13 @@
     <t>post</t>
   </si>
   <si>
-    <t>http://211.149.163.145:3000/login</t>
+    <t>http://219.189.188.145:4000/login</t>
   </si>
   <si>
     <t>{"username": "jackLu", "password":"jackLu"}</t>
   </si>
   <si>
-    <t>http://211.149.163.145:3000/api/tasks</t>
+    <t>http://219.189.188.145:4000/api/tasks</t>
   </si>
   <si>
     <t>否</t>
@@ -67,7 +67,7 @@
     <t>{"token":"dsfsdsdfsdccxzvzcxttryu"}</t>
   </si>
   <si>
-    <t>http://211.149.163.145:3000/api/tasks/:</t>
+    <t>http://219.189.188.145:4000/api/tasks/:</t>
   </si>
   <si>
     <t>{"token":"ryrtyrtytreytryretryngfng"}</t>
@@ -86,8 +86,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -122,23 +122,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,67 +132,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,7 +146,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,23 +237,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,12 +275,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -293,37 +389,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,121 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,56 +466,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -561,8 +511,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,137 +586,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,9 +726,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -737,6 +734,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1091,12 +1094,12 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="33.125" customWidth="1"/>
+    <col min="1" max="1" width="40.75" customWidth="1"/>
     <col min="2" max="2" width="65.625" customWidth="1"/>
     <col min="3" max="3" width="28.375" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
@@ -1121,87 +1124,87 @@
       </c>
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="34" customHeight="1" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="33" customHeight="1" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1212,6 +1215,12 @@
     <row r="11" ht="45" customHeight="1"/>
     <row r="12" ht="45" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="http://219.189.188.145:4000/login"/>
+    <hyperlink ref="A4" r:id="rId2" display="http://219.189.188.145:4000/api/tasks"/>
+    <hyperlink ref="A5" r:id="rId2" display="http://219.189.188.145:4000/api/tasks"/>
+    <hyperlink ref="A6" r:id="rId3" display="http://219.189.188.145:4000/api/tasks/:"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/7.12章节/testAPI/Data/data.xlsx
+++ b/7.12章节/testAPI/Data/data.xlsx
@@ -86,8 +86,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -111,6 +111,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -122,16 +130,67 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,30 +204,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,29 +228,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -227,44 +265,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -275,175 +275,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,8 +471,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -489,6 +491,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,32 +528,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,11 +551,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,10 +586,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,121 +598,121 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -726,19 +726,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1094,7 +1094,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1124,87 +1124,87 @@
       </c>
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="34" customHeight="1" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="33" customHeight="1" spans="1:5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:5">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
     </row>
